--- a/lab/thanksToGami/ASH/ff99SB/CCSD_AUG.xlsx
+++ b/lab/thanksToGami/ASH/ff99SB/CCSD_AUG.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>dih</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>EGB</t>
+  </si>
+  <si>
+    <t>ΔG_ave_anti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔG_ave_syn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔG差</t>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -11221,11 +11236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486452456"/>
-        <c:axId val="486445400"/>
+        <c:axId val="468317176"/>
+        <c:axId val="468318352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486452456"/>
+        <c:axId val="468317176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -11331,13 +11346,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486445400"/>
+        <c:crossAx val="468318352"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486445400"/>
+        <c:axId val="468318352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11453,7 +11468,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486452456"/>
+        <c:crossAx val="468317176"/>
         <c:crossesAt val="-180"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12094,15 +12109,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -25077,15 +25092,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M362"/>
+  <dimension ref="A1:Q362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25122,8 +25137,17 @@
       <c r="M1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-180</v>
       </c>
@@ -25165,8 +25189,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <f>AVERAGE(I3:I91)</f>
+        <v>7.5005719101123587</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE(I92:I272)</f>
+        <v>3.5953309392265176</v>
+      </c>
+      <c r="Q2">
+        <f>O2-P2</f>
+        <v>3.9052409708858411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-179</v>
       </c>
@@ -25209,7 +25245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-178</v>
       </c>
@@ -25252,7 +25288,7 @@
         <v>7.669999999999888E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-177</v>
       </c>
@@ -25295,7 +25331,7 @@
         <v>0.1551000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-176</v>
       </c>
@@ -25338,7 +25374,7 @@
         <v>0.23489999999999966</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-175</v>
       </c>
@@ -25381,7 +25417,7 @@
         <v>0.31540000000000035</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-174</v>
       </c>
@@ -25424,7 +25460,7 @@
         <v>0.3965999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-173</v>
       </c>
@@ -25467,7 +25503,7 @@
         <v>0.47830000000000084</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-172</v>
       </c>
@@ -25510,7 +25546,7 @@
         <v>0.56060000000000088</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-171</v>
       </c>
@@ -25553,7 +25589,7 @@
         <v>0.64329999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-170</v>
       </c>
@@ -25596,7 +25632,7 @@
         <v>0.72639999999999816</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-169</v>
       </c>
@@ -25639,7 +25675,7 @@
         <v>0.80999999999999872</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-168</v>
       </c>
@@ -25682,7 +25718,7 @@
         <v>0.89379999999999882</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-167</v>
       </c>
@@ -25725,7 +25761,7 @@
         <v>0.97789999999999822</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-166</v>
       </c>
